--- a/artfynd/Oxliden artfynd.xlsx
+++ b/artfynd/Oxliden artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56071692</v>
+        <v>73355363</v>
       </c>
       <c r="B2" t="n">
-        <v>91263</v>
+        <v>91541</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,38 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>657516</v>
+        <v>657960</v>
       </c>
       <c r="R2" t="n">
-        <v>7105133</v>
+        <v>7105271</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -749,12 +745,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -769,22 +765,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73355363</v>
+        <v>56071692</v>
       </c>
       <c r="B3" t="n">
-        <v>91541</v>
+        <v>91263</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,34 +788,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>657960</v>
+        <v>657516</v>
       </c>
       <c r="R3" t="n">
-        <v>7105271</v>
+        <v>7105133</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -846,12 +846,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -866,22 +866,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>113887144</v>
+        <v>113887834</v>
       </c>
       <c r="B4" t="n">
-        <v>79949</v>
+        <v>78980</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,21 +889,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>388</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>657979</v>
+        <v>657518</v>
       </c>
       <c r="R4" t="n">
-        <v>7104338</v>
+        <v>7105661</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -947,12 +947,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1090,10 +1090,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>113887834</v>
+        <v>113887144</v>
       </c>
       <c r="B6" t="n">
-        <v>78980</v>
+        <v>79949</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,21 +1101,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>388</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>657518</v>
+        <v>657979</v>
       </c>
       <c r="R6" t="n">
-        <v>7105661</v>
+        <v>7104338</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1196,10 +1196,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56071695</v>
+        <v>73355458</v>
       </c>
       <c r="B7" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1207,38 +1207,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>657474</v>
+        <v>657403</v>
       </c>
       <c r="R7" t="n">
-        <v>7105113</v>
+        <v>7105466</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1265,12 +1261,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1285,22 +1281,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73355458</v>
+        <v>73355373</v>
       </c>
       <c r="B8" t="n">
-        <v>91263</v>
+        <v>57657</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,34 +1304,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>657403</v>
+        <v>658644</v>
       </c>
       <c r="R8" t="n">
-        <v>7105466</v>
+        <v>7104710</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1394,10 +1398,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73355373</v>
+        <v>56071695</v>
       </c>
       <c r="B9" t="n">
-        <v>57657</v>
+        <v>80083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1405,42 +1409,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>658644</v>
+        <v>657474</v>
       </c>
       <c r="R9" t="n">
-        <v>7104710</v>
+        <v>7105113</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1487,22 +1487,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>113886676</v>
+        <v>113886626</v>
       </c>
       <c r="B10" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1510,21 +1510,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>657977</v>
+        <v>657766</v>
       </c>
       <c r="R10" t="n">
-        <v>7104368</v>
+        <v>7104156</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>113886626</v>
+        <v>113886582</v>
       </c>
       <c r="B11" t="n">
-        <v>82792</v>
+        <v>91263</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1616,21 +1616,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>657766</v>
+        <v>657454</v>
       </c>
       <c r="R11" t="n">
-        <v>7104156</v>
+        <v>7105526</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -1711,10 +1711,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>113886582</v>
+        <v>113886676</v>
       </c>
       <c r="B12" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1722,21 +1722,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>657454</v>
+        <v>657977</v>
       </c>
       <c r="R12" t="n">
-        <v>7105526</v>
+        <v>7104368</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1780,12 +1780,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -1817,10 +1817,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56071706</v>
+        <v>56071701</v>
       </c>
       <c r="B13" t="n">
-        <v>78739</v>
+        <v>80083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1828,21 +1828,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>656949</v>
+        <v>657162</v>
       </c>
       <c r="R13" t="n">
-        <v>7104166</v>
+        <v>7103839</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56071705</v>
+        <v>73355478</v>
       </c>
       <c r="B14" t="n">
-        <v>78647</v>
+        <v>79012</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1929,38 +1929,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>185</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>656971</v>
+        <v>657547</v>
       </c>
       <c r="R14" t="n">
-        <v>7103948</v>
+        <v>7105326</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1987,12 +1983,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2007,22 +2003,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56071701</v>
+        <v>56071706</v>
       </c>
       <c r="B15" t="n">
-        <v>80083</v>
+        <v>78739</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2030,21 +2026,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2058,10 +2054,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>657162</v>
+        <v>656949</v>
       </c>
       <c r="R15" t="n">
-        <v>7103839</v>
+        <v>7104166</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2120,10 +2116,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73355478</v>
+        <v>56071705</v>
       </c>
       <c r="B16" t="n">
-        <v>79012</v>
+        <v>78647</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,34 +2127,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>657547</v>
+        <v>656971</v>
       </c>
       <c r="R16" t="n">
-        <v>7105326</v>
+        <v>7103948</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2205,44 +2205,44 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>113886658</v>
+        <v>113888036</v>
       </c>
       <c r="B17" t="n">
-        <v>95606</v>
+        <v>78738</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2813</v>
+        <v>6446</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>657351</v>
+        <v>657734</v>
       </c>
       <c r="R17" t="n">
-        <v>7105733</v>
+        <v>7104083</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2323,32 +2323,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>113888036</v>
+        <v>113886658</v>
       </c>
       <c r="B18" t="n">
-        <v>78738</v>
+        <v>95606</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6446</v>
+        <v>2813</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>657734</v>
+        <v>657351</v>
       </c>
       <c r="R18" t="n">
-        <v>7104083</v>
+        <v>7105733</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2392,12 +2392,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2429,32 +2429,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>113887726</v>
+        <v>56071689</v>
       </c>
       <c r="B19" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2464,17 +2464,17 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>657760</v>
+        <v>657544</v>
       </c>
       <c r="R19" t="n">
-        <v>7104220</v>
+        <v>7105399</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2498,17 +2498,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2523,44 +2518,44 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>113886795</v>
+        <v>56071672</v>
       </c>
       <c r="B20" t="n">
-        <v>78739</v>
+        <v>91406</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>228912</v>
+        <v>1503</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2570,17 +2565,17 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>657727</v>
+        <v>657917</v>
       </c>
       <c r="R20" t="n">
-        <v>7104179</v>
+        <v>7104287</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2604,17 +2599,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2629,22 +2619,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56071672</v>
+        <v>73355449</v>
       </c>
       <c r="B21" t="n">
-        <v>91406</v>
+        <v>90741</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2652,38 +2642,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1503</v>
+        <v>2051</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Kytöv. &amp; M.Toivonen</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>657917</v>
+        <v>658087</v>
       </c>
       <c r="R21" t="n">
-        <v>7104287</v>
+        <v>7104464</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2710,12 +2696,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2730,22 +2716,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56071689</v>
+        <v>73355358</v>
       </c>
       <c r="B22" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2753,38 +2739,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>657544</v>
+        <v>657651</v>
       </c>
       <c r="R22" t="n">
-        <v>7105399</v>
+        <v>7105303</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2811,12 +2793,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2831,12 +2813,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
@@ -2944,48 +2926,52 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>73355358</v>
+        <v>113887726</v>
       </c>
       <c r="B24" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>657651</v>
+        <v>657760</v>
       </c>
       <c r="R24" t="n">
-        <v>7105303</v>
+        <v>7104220</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3009,12 +2995,17 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3029,60 +3020,64 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>73355449</v>
+        <v>113886795</v>
       </c>
       <c r="B25" t="n">
-        <v>90741</v>
+        <v>78739</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2051</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>658087</v>
+        <v>657727</v>
       </c>
       <c r="R25" t="n">
-        <v>7104464</v>
+        <v>7104179</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3106,12 +3101,17 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3126,44 +3126,44 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>73355452</v>
+        <v>73355467</v>
       </c>
       <c r="B26" t="n">
-        <v>78980</v>
+        <v>79987</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3173,10 +3173,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>657822</v>
+        <v>657326</v>
       </c>
       <c r="R26" t="n">
-        <v>7104201</v>
+        <v>7105713</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3235,32 +3235,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>73355467</v>
+        <v>73355374</v>
       </c>
       <c r="B27" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>657326</v>
+        <v>658703</v>
       </c>
       <c r="R27" t="n">
-        <v>7105713</v>
+        <v>7104704</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>73355374</v>
+        <v>73355450</v>
       </c>
       <c r="B28" t="n">
         <v>80083</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>658703</v>
+        <v>657979</v>
       </c>
       <c r="R28" t="n">
-        <v>7104704</v>
+        <v>7104364</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>73355450</v>
+        <v>73355452</v>
       </c>
       <c r="B29" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3440,21 +3440,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3464,10 +3464,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>657979</v>
+        <v>657822</v>
       </c>
       <c r="R29" t="n">
-        <v>7104364</v>
+        <v>7104201</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>73355471</v>
+        <v>69885252</v>
       </c>
       <c r="B36" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4140,37 +4140,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>657411</v>
+        <v>658722</v>
       </c>
       <c r="R36" t="n">
-        <v>7105711</v>
+        <v>7104652</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4194,12 +4194,17 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2017-10-15</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2017-10-15</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4214,19 +4219,19 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>73355369</v>
+        <v>69885250</v>
       </c>
       <c r="B37" t="n">
         <v>80083</v>
@@ -4257,17 +4262,17 @@
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>658552</v>
+        <v>657452</v>
       </c>
       <c r="R37" t="n">
-        <v>7104702</v>
+        <v>7105474</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4291,17 +4296,17 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2017-10-15</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2017-10-15</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Växer på grov rönn</t>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4316,22 +4321,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>73355354</v>
+        <v>73355471</v>
       </c>
       <c r="B38" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4339,21 +4344,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4363,10 +4368,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>657549</v>
+        <v>657411</v>
       </c>
       <c r="R38" t="n">
-        <v>7105271</v>
+        <v>7105711</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4425,32 +4430,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>73355453</v>
+        <v>73355369</v>
       </c>
       <c r="B39" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4460,10 +4465,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>657822</v>
+        <v>658552</v>
       </c>
       <c r="R39" t="n">
-        <v>7104201</v>
+        <v>7104702</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4496,6 +4501,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2017-09-19</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Växer på grov rönn</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4522,7 +4532,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>69885252</v>
+        <v>73355354</v>
       </c>
       <c r="B40" t="n">
         <v>80083</v>
@@ -4553,17 +4563,17 @@
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>658722</v>
+        <v>657549</v>
       </c>
       <c r="R40" t="n">
-        <v>7104652</v>
+        <v>7105271</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4587,17 +4597,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4612,60 +4617,60 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>69885250</v>
+        <v>73355453</v>
       </c>
       <c r="B41" t="n">
-        <v>80083</v>
+        <v>79987</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>657452</v>
+        <v>657822</v>
       </c>
       <c r="R41" t="n">
-        <v>7105474</v>
+        <v>7104201</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4689,17 +4694,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4714,12 +4714,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -4938,32 +4938,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>113887646</v>
+        <v>113887874</v>
       </c>
       <c r="B44" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4977,10 +4977,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>657791</v>
+        <v>657933</v>
       </c>
       <c r="R44" t="n">
-        <v>7104086</v>
+        <v>7104433</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5150,32 +5150,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>113886846</v>
+        <v>113887646</v>
       </c>
       <c r="B46" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>657338</v>
+        <v>657791</v>
       </c>
       <c r="R46" t="n">
-        <v>7105679</v>
+        <v>7104086</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5219,12 +5219,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -5256,7 +5256,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>113886675</v>
+        <v>113886846</v>
       </c>
       <c r="B47" t="n">
         <v>80083</v>
@@ -5295,10 +5295,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>657973</v>
+        <v>657338</v>
       </c>
       <c r="R47" t="n">
-        <v>7104291</v>
+        <v>7105679</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5325,12 +5325,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -5362,10 +5362,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>113887874</v>
+        <v>113886675</v>
       </c>
       <c r="B48" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5373,21 +5373,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5401,10 +5401,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>657933</v>
+        <v>657973</v>
       </c>
       <c r="R48" t="n">
-        <v>7104433</v>
+        <v>7104291</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56071699</v>
+        <v>73355377</v>
       </c>
       <c r="B51" t="n">
-        <v>79012</v>
+        <v>80084</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5677,38 +5677,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>185</v>
+        <v>2081</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>657627</v>
+        <v>658710</v>
       </c>
       <c r="R51" t="n">
-        <v>7104746</v>
+        <v>7104666</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5735,12 +5731,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5755,44 +5751,44 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56071691</v>
+        <v>113887725</v>
       </c>
       <c r="B52" t="n">
-        <v>91245</v>
+        <v>92535</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5802,17 +5798,17 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>657528</v>
+        <v>657950</v>
       </c>
       <c r="R52" t="n">
-        <v>7105236</v>
+        <v>7104274</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5836,12 +5832,17 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5856,44 +5857,44 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56071703</v>
+        <v>113887647</v>
       </c>
       <c r="B53" t="n">
-        <v>78738</v>
+        <v>92535</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5903,17 +5904,17 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>656984</v>
+        <v>657913</v>
       </c>
       <c r="R53" t="n">
-        <v>7103934</v>
+        <v>7104356</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5937,12 +5938,17 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5957,44 +5963,44 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>56071697</v>
+        <v>113886494</v>
       </c>
       <c r="B54" t="n">
-        <v>80083</v>
+        <v>91256</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -6004,17 +6010,17 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>657483</v>
+        <v>657479</v>
       </c>
       <c r="R54" t="n">
-        <v>7105053</v>
+        <v>7105709</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6038,12 +6044,17 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6058,22 +6069,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56071688</v>
+        <v>56071699</v>
       </c>
       <c r="B55" t="n">
-        <v>75075</v>
+        <v>79012</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6081,21 +6092,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6440</v>
+        <v>185</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -6109,10 +6120,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>657540</v>
+        <v>657627</v>
       </c>
       <c r="R55" t="n">
-        <v>7105405</v>
+        <v>7104746</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6171,45 +6182,49 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73355466</v>
+        <v>56071697</v>
       </c>
       <c r="B56" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>657326</v>
+        <v>657483</v>
       </c>
       <c r="R56" t="n">
-        <v>7105713</v>
+        <v>7105053</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6236,12 +6251,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6256,22 +6271,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>73355377</v>
+        <v>56071703</v>
       </c>
       <c r="B57" t="n">
-        <v>80084</v>
+        <v>78738</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6279,34 +6294,38 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2081</v>
+        <v>6446</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>658710</v>
+        <v>656984</v>
       </c>
       <c r="R57" t="n">
-        <v>7104666</v>
+        <v>7103934</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6333,12 +6352,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6353,44 +6372,44 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>113886494</v>
+        <v>56071688</v>
       </c>
       <c r="B58" t="n">
-        <v>91256</v>
+        <v>75075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1205</v>
+        <v>6440</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6400,17 +6419,17 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>657479</v>
+        <v>657540</v>
       </c>
       <c r="R58" t="n">
-        <v>7105709</v>
+        <v>7105405</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6434,17 +6453,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6459,44 +6473,44 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>113887725</v>
+        <v>56071691</v>
       </c>
       <c r="B59" t="n">
-        <v>92535</v>
+        <v>91245</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -6506,17 +6520,17 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>657950</v>
+        <v>657528</v>
       </c>
       <c r="R59" t="n">
-        <v>7104274</v>
+        <v>7105236</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -6540,17 +6554,12 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6565,22 +6574,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>113887647</v>
+        <v>73355466</v>
       </c>
       <c r="B60" t="n">
-        <v>92535</v>
+        <v>80112</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6588,41 +6597,37 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4364</v>
+        <v>6462</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>657913</v>
+        <v>657326</v>
       </c>
       <c r="R60" t="n">
-        <v>7104356</v>
+        <v>7105713</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -6646,17 +6651,12 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6671,12 +6671,12 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
@@ -6982,32 +6982,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>113887649</v>
+        <v>113887875</v>
       </c>
       <c r="B64" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -7021,10 +7021,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>657780</v>
+        <v>657763</v>
       </c>
       <c r="R64" t="n">
-        <v>7104082</v>
+        <v>7104085</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -7088,32 +7088,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>113887875</v>
+        <v>113887649</v>
       </c>
       <c r="B65" t="n">
-        <v>78980</v>
+        <v>92535</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -7127,10 +7127,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>657763</v>
+        <v>657780</v>
       </c>
       <c r="R65" t="n">
-        <v>7104085</v>
+        <v>7104082</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -7300,10 +7300,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>69885251</v>
+        <v>56071670</v>
       </c>
       <c r="B67" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7311,37 +7311,41 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>657337</v>
+        <v>657749</v>
       </c>
       <c r="R67" t="n">
-        <v>7105700</v>
+        <v>7104194</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -7365,17 +7369,12 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7390,22 +7389,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>73355366</v>
+        <v>73355451</v>
       </c>
       <c r="B68" t="n">
-        <v>88654</v>
+        <v>79949</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7413,21 +7412,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>510</v>
+        <v>388</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7437,10 +7436,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>658069</v>
+        <v>657989</v>
       </c>
       <c r="R68" t="n">
-        <v>7105052</v>
+        <v>7104351</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7499,10 +7498,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>73355448</v>
+        <v>73355366</v>
       </c>
       <c r="B69" t="n">
-        <v>92551</v>
+        <v>88654</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7510,21 +7509,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2059</v>
+        <v>510</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7534,10 +7533,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>658149</v>
+        <v>658069</v>
       </c>
       <c r="R69" t="n">
-        <v>7104568</v>
+        <v>7105052</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7693,10 +7692,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>73355451</v>
+        <v>73355448</v>
       </c>
       <c r="B71" t="n">
-        <v>79949</v>
+        <v>92551</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7704,21 +7703,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>388</v>
+        <v>2059</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7728,10 +7727,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>657989</v>
+        <v>658149</v>
       </c>
       <c r="R71" t="n">
-        <v>7104351</v>
+        <v>7104568</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7790,10 +7789,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>56071670</v>
+        <v>69885251</v>
       </c>
       <c r="B72" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7801,41 +7800,37 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>657749</v>
+        <v>657337</v>
       </c>
       <c r="R72" t="n">
-        <v>7104194</v>
+        <v>7105700</v>
       </c>
       <c r="S72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -7859,12 +7854,17 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-10-15</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-10-15</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -7879,12 +7879,12 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
@@ -8204,10 +8204,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>113888093</v>
+        <v>73355469</v>
       </c>
       <c r="B76" t="n">
-        <v>78738</v>
+        <v>80083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8215,41 +8215,37 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>657773</v>
+        <v>657371</v>
       </c>
       <c r="R76" t="n">
-        <v>7104082</v>
+        <v>7105751</v>
       </c>
       <c r="S76" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -8273,17 +8269,12 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8298,64 +8289,60 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>113886782</v>
+        <v>73355379</v>
       </c>
       <c r="B77" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>657977</v>
+        <v>658710</v>
       </c>
       <c r="R77" t="n">
-        <v>7104292</v>
+        <v>7104666</v>
       </c>
       <c r="S77" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -8379,17 +8366,12 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8404,22 +8386,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>73355469</v>
+        <v>113888093</v>
       </c>
       <c r="B78" t="n">
-        <v>80083</v>
+        <v>78738</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8427,37 +8409,41 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>657371</v>
+        <v>657773</v>
       </c>
       <c r="R78" t="n">
-        <v>7105751</v>
+        <v>7104082</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -8481,12 +8467,17 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8501,60 +8492,64 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>73355379</v>
+        <v>113886782</v>
       </c>
       <c r="B79" t="n">
-        <v>80083</v>
+        <v>79987</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>658710</v>
+        <v>657977</v>
       </c>
       <c r="R79" t="n">
-        <v>7104666</v>
+        <v>7104292</v>
       </c>
       <c r="S79" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -8578,12 +8573,17 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -8598,60 +8598,60 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>73355470</v>
+        <v>69885249</v>
       </c>
       <c r="B80" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>657411</v>
+        <v>657502</v>
       </c>
       <c r="R80" t="n">
-        <v>7105709</v>
+        <v>7105414</v>
       </c>
       <c r="S80" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -8675,12 +8675,17 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2017-10-15</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2017-10-15</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -8695,44 +8700,44 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>73355364</v>
+        <v>73355470</v>
       </c>
       <c r="B81" t="n">
-        <v>78980</v>
+        <v>79987</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8742,10 +8747,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>658022</v>
+        <v>657411</v>
       </c>
       <c r="R81" t="n">
-        <v>7105112</v>
+        <v>7105709</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8804,10 +8809,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>69885249</v>
+        <v>73355364</v>
       </c>
       <c r="B82" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8815,37 +8820,37 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>657502</v>
+        <v>658022</v>
       </c>
       <c r="R82" t="n">
-        <v>7105414</v>
+        <v>7105112</v>
       </c>
       <c r="S82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -8869,17 +8874,12 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -8894,44 +8894,44 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>113886442</v>
+        <v>113887696</v>
       </c>
       <c r="B83" t="n">
-        <v>91245</v>
+        <v>92547</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1202</v>
+        <v>4366</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8945,10 +8945,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>657954</v>
+        <v>657931</v>
       </c>
       <c r="R83" t="n">
-        <v>7104353</v>
+        <v>7104413</v>
       </c>
       <c r="S83" t="n">
         <v>5</v>
@@ -9012,32 +9012,32 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>113887696</v>
+        <v>113886442</v>
       </c>
       <c r="B84" t="n">
-        <v>92547</v>
+        <v>91245</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -9051,10 +9051,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>657931</v>
+        <v>657954</v>
       </c>
       <c r="R84" t="n">
-        <v>7104413</v>
+        <v>7104353</v>
       </c>
       <c r="S84" t="n">
         <v>5</v>
@@ -9224,32 +9224,32 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>113886848</v>
+        <v>113886787</v>
       </c>
       <c r="B86" t="n">
-        <v>80083</v>
+        <v>79987</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -9263,10 +9263,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>657392</v>
+        <v>657815</v>
       </c>
       <c r="R86" t="n">
-        <v>7105697</v>
+        <v>7104197</v>
       </c>
       <c r="S86" t="n">
         <v>5</v>
@@ -9293,12 +9293,12 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -9330,32 +9330,32 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>113886787</v>
+        <v>113886848</v>
       </c>
       <c r="B87" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -9369,10 +9369,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>657815</v>
+        <v>657392</v>
       </c>
       <c r="R87" t="n">
-        <v>7104197</v>
+        <v>7105697</v>
       </c>
       <c r="S87" t="n">
         <v>5</v>
@@ -9399,12 +9399,12 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
@@ -9537,48 +9537,52 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>73355353</v>
+        <v>113887728</v>
       </c>
       <c r="B89" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>657548</v>
+        <v>657730</v>
       </c>
       <c r="R89" t="n">
-        <v>7105270</v>
+        <v>7104175</v>
       </c>
       <c r="S89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -9602,12 +9606,17 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -9622,60 +9631,64 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>73355357</v>
+        <v>113886779</v>
       </c>
       <c r="B90" t="n">
-        <v>80083</v>
+        <v>79987</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>657614</v>
+        <v>658021</v>
       </c>
       <c r="R90" t="n">
-        <v>7105296</v>
+        <v>7104364</v>
       </c>
       <c r="S90" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -9699,12 +9712,17 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -9719,22 +9737,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>73355456</v>
+        <v>113887459</v>
       </c>
       <c r="B91" t="n">
-        <v>80083</v>
+        <v>92571</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9742,37 +9760,41 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>5966</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>657448</v>
+        <v>657758</v>
       </c>
       <c r="R91" t="n">
-        <v>7105038</v>
+        <v>7104206</v>
       </c>
       <c r="S91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -9796,12 +9818,17 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -9816,12 +9843,12 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
@@ -9925,10 +9952,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>73355459</v>
+        <v>73355477</v>
       </c>
       <c r="B93" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9936,21 +9963,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -9960,10 +9987,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>657403</v>
+        <v>657547</v>
       </c>
       <c r="R93" t="n">
-        <v>7105466</v>
+        <v>7105326</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10022,10 +10049,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>73355477</v>
+        <v>73355459</v>
       </c>
       <c r="B94" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10033,21 +10060,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10057,10 +10084,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>657547</v>
+        <v>657403</v>
       </c>
       <c r="R94" t="n">
-        <v>7105326</v>
+        <v>7105466</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10216,52 +10243,48 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>113887728</v>
+        <v>73355353</v>
       </c>
       <c r="B96" t="n">
-        <v>92535</v>
+        <v>80083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>657730</v>
+        <v>657548</v>
       </c>
       <c r="R96" t="n">
-        <v>7104175</v>
+        <v>7105270</v>
       </c>
       <c r="S96" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -10285,17 +10308,12 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10310,22 +10328,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>113887459</v>
+        <v>73355357</v>
       </c>
       <c r="B97" t="n">
-        <v>92571</v>
+        <v>80083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10333,41 +10351,37 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5966</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>657758</v>
+        <v>657614</v>
       </c>
       <c r="R97" t="n">
-        <v>7104206</v>
+        <v>7105296</v>
       </c>
       <c r="S97" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -10391,17 +10405,12 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -10416,64 +10425,60 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>113886779</v>
+        <v>73355456</v>
       </c>
       <c r="B98" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>658021</v>
+        <v>657448</v>
       </c>
       <c r="R98" t="n">
-        <v>7104364</v>
+        <v>7105038</v>
       </c>
       <c r="S98" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -10497,17 +10502,12 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -10522,12 +10522,12 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
@@ -10736,10 +10736,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>73355368</v>
+        <v>73355362</v>
       </c>
       <c r="B101" t="n">
-        <v>57670</v>
+        <v>80083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10747,39 +10747,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100048</v>
+        <v>6458</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>658162</v>
+        <v>657746</v>
       </c>
       <c r="R101" t="n">
-        <v>7105062</v>
+        <v>7105248</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -10935,10 +10930,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>73355362</v>
+        <v>73355368</v>
       </c>
       <c r="B103" t="n">
-        <v>80083</v>
+        <v>57670</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10946,34 +10941,39 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6458</v>
+        <v>100048</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="P103" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>657746</v>
+        <v>658162</v>
       </c>
       <c r="R103" t="n">
-        <v>7105248</v>
+        <v>7105062</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>73355371</v>
+        <v>56071678</v>
       </c>
       <c r="B106" t="n">
         <v>78647</v>
@@ -11272,17 +11272,21 @@
           <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>658661</v>
+        <v>658139</v>
       </c>
       <c r="R106" t="n">
-        <v>7104820</v>
+        <v>7104573</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -11309,12 +11313,12 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -11329,22 +11333,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>73355380</v>
+        <v>56071681</v>
       </c>
       <c r="B107" t="n">
-        <v>80083</v>
+        <v>80084</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11352,34 +11356,38 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>658703</v>
+        <v>658295</v>
       </c>
       <c r="R107" t="n">
-        <v>7104655</v>
+        <v>7104694</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -11406,12 +11414,12 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -11426,22 +11434,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>73355468</v>
+        <v>73355371</v>
       </c>
       <c r="B108" t="n">
-        <v>80083</v>
+        <v>78647</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11449,21 +11457,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -11473,10 +11481,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>657326</v>
+        <v>658661</v>
       </c>
       <c r="R108" t="n">
-        <v>7105713</v>
+        <v>7104820</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -11535,10 +11543,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>56071678</v>
+        <v>113886632</v>
       </c>
       <c r="B109" t="n">
-        <v>78647</v>
+        <v>82792</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11546,21 +11554,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>353</v>
+        <v>1312</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -11570,17 +11578,17 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>658139</v>
+        <v>657796</v>
       </c>
       <c r="R109" t="n">
-        <v>7104573</v>
+        <v>7104281</v>
       </c>
       <c r="S109" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -11604,12 +11612,17 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC109" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -11624,22 +11637,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>56071681</v>
+        <v>73355380</v>
       </c>
       <c r="B110" t="n">
-        <v>80084</v>
+        <v>80083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11647,38 +11660,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>658295</v>
+        <v>658703</v>
       </c>
       <c r="R110" t="n">
-        <v>7104694</v>
+        <v>7104655</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -11705,12 +11714,12 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -11725,22 +11734,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>113886632</v>
+        <v>73355468</v>
       </c>
       <c r="B111" t="n">
-        <v>82792</v>
+        <v>80083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11748,41 +11757,37 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>657796</v>
+        <v>657326</v>
       </c>
       <c r="R111" t="n">
-        <v>7104281</v>
+        <v>7105713</v>
       </c>
       <c r="S111" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -11806,17 +11811,12 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -11831,12 +11831,12 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
@@ -12264,10 +12264,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>56071704</v>
+        <v>56071690</v>
       </c>
       <c r="B116" t="n">
-        <v>78739</v>
+        <v>91245</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12275,21 +12275,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>656984</v>
+        <v>657498</v>
       </c>
       <c r="R116" t="n">
-        <v>7103934</v>
+        <v>7105383</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -12365,32 +12365,32 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>56071690</v>
+        <v>56071674</v>
       </c>
       <c r="B117" t="n">
-        <v>91245</v>
+        <v>80112</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -12404,10 +12404,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>657498</v>
+        <v>658021</v>
       </c>
       <c r="R117" t="n">
-        <v>7105383</v>
+        <v>7104498</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -12466,32 +12466,32 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>56071674</v>
+        <v>56071704</v>
       </c>
       <c r="B118" t="n">
-        <v>80112</v>
+        <v>78739</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6462</v>
+        <v>228912</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -12505,10 +12505,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>658021</v>
+        <v>656984</v>
       </c>
       <c r="R118" t="n">
-        <v>7104498</v>
+        <v>7103934</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -12567,32 +12567,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>73355356</v>
+        <v>73355454</v>
       </c>
       <c r="B119" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -12602,10 +12602,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>657550</v>
+        <v>657510</v>
       </c>
       <c r="R119" t="n">
-        <v>7105270</v>
+        <v>7104601</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>73355376</v>
+        <v>73355356</v>
       </c>
       <c r="B120" t="n">
         <v>80083</v>
@@ -12699,10 +12699,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>658729</v>
+        <v>657550</v>
       </c>
       <c r="R120" t="n">
-        <v>7104669</v>
+        <v>7105270</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>73355375</v>
+        <v>73355376</v>
       </c>
       <c r="B121" t="n">
         <v>80083</v>
@@ -12796,10 +12796,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>658719</v>
+        <v>658729</v>
       </c>
       <c r="R121" t="n">
-        <v>7104656</v>
+        <v>7104669</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -12858,32 +12858,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>73355454</v>
+        <v>73355375</v>
       </c>
       <c r="B122" t="n">
-        <v>92535</v>
+        <v>80083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -12893,10 +12893,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>657510</v>
+        <v>658719</v>
       </c>
       <c r="R122" t="n">
-        <v>7104601</v>
+        <v>7104656</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -13167,10 +13167,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>73355473</v>
+        <v>56071702</v>
       </c>
       <c r="B125" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -13178,34 +13178,38 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>657459</v>
+        <v>657019</v>
       </c>
       <c r="R125" t="n">
-        <v>7105707</v>
+        <v>7103871</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -13232,12 +13236,12 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -13252,22 +13256,22 @@
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>73355465</v>
+        <v>56071682</v>
       </c>
       <c r="B126" t="n">
-        <v>80118</v>
+        <v>80112</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13275,34 +13279,38 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr"/>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P126" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>657326</v>
+        <v>658292</v>
       </c>
       <c r="R126" t="n">
-        <v>7105713</v>
+        <v>7104702</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -13329,12 +13337,12 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -13349,44 +13357,44 @@
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>56071682</v>
+        <v>113886845</v>
       </c>
       <c r="B127" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -13396,17 +13404,17 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>658292</v>
+        <v>657368</v>
       </c>
       <c r="R127" t="n">
-        <v>7104702</v>
+        <v>7105662</v>
       </c>
       <c r="S127" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
@@ -13430,12 +13438,17 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC127" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -13450,22 +13463,22 @@
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>56071702</v>
+        <v>113886470</v>
       </c>
       <c r="B128" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -13473,21 +13486,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -13497,17 +13510,17 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>657019</v>
+        <v>657558</v>
       </c>
       <c r="R128" t="n">
-        <v>7103871</v>
+        <v>7105584</v>
       </c>
       <c r="S128" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -13531,12 +13544,17 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC128" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -13551,22 +13569,22 @@
       <c r="AT128" t="inlineStr"/>
       <c r="AW128" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>113886845</v>
+        <v>113886525</v>
       </c>
       <c r="B129" t="n">
-        <v>80083</v>
+        <v>91259</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13574,21 +13592,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -13602,10 +13620,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>657368</v>
+        <v>657586</v>
       </c>
       <c r="R129" t="n">
-        <v>7105662</v>
+        <v>7105611</v>
       </c>
       <c r="S129" t="n">
         <v>5</v>
@@ -13669,10 +13687,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>113886470</v>
+        <v>73355473</v>
       </c>
       <c r="B130" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13680,41 +13698,37 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>657558</v>
+        <v>657459</v>
       </c>
       <c r="R130" t="n">
-        <v>7105584</v>
+        <v>7105707</v>
       </c>
       <c r="S130" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -13738,17 +13752,12 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="AC130" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -13763,64 +13772,60 @@
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>113886525</v>
+        <v>73355465</v>
       </c>
       <c r="B131" t="n">
-        <v>91259</v>
+        <v>80118</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1204</v>
+        <v>6463</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>657586</v>
+        <v>657326</v>
       </c>
       <c r="R131" t="n">
-        <v>7105611</v>
+        <v>7105713</v>
       </c>
       <c r="S131" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -13844,17 +13849,12 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="AC131" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -13869,57 +13869,61 @@
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>73355464</v>
+        <v>56071673</v>
       </c>
       <c r="B132" t="n">
-        <v>91245</v>
+        <v>79987</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P132" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>657349</v>
+        <v>658027</v>
       </c>
       <c r="R132" t="n">
-        <v>7105636</v>
+        <v>7104494</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -13946,12 +13950,12 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -13966,22 +13970,22 @@
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>73355370</v>
+        <v>56071685</v>
       </c>
       <c r="B133" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13989,34 +13993,38 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>658588</v>
+        <v>658439</v>
       </c>
       <c r="R133" t="n">
-        <v>7104719</v>
+        <v>7104859</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -14043,12 +14051,12 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD133" t="b">
@@ -14063,61 +14071,57 @@
       <c r="AT133" t="inlineStr"/>
       <c r="AW133" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX133" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>56071673</v>
+        <v>73355464</v>
       </c>
       <c r="B134" t="n">
-        <v>79987</v>
+        <v>91245</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>658027</v>
+        <v>657349</v>
       </c>
       <c r="R134" t="n">
-        <v>7104494</v>
+        <v>7105636</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -14144,12 +14148,12 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -14164,22 +14168,22 @@
       <c r="AT134" t="inlineStr"/>
       <c r="AW134" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX134" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>56071685</v>
+        <v>73355370</v>
       </c>
       <c r="B135" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -14187,38 +14191,34 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>658439</v>
+        <v>658588</v>
       </c>
       <c r="R135" t="n">
-        <v>7104859</v>
+        <v>7104719</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -14245,12 +14245,12 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD135" t="b">
@@ -14265,12 +14265,12 @@
       <c r="AT135" t="inlineStr"/>
       <c r="AW135" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX135" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY135" t="inlineStr"/>

--- a/artfynd/Oxliden artfynd.xlsx
+++ b/artfynd/Oxliden artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73355363</v>
+        <v>56071692</v>
       </c>
       <c r="B2" t="n">
-        <v>91541</v>
+        <v>91263</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>657960</v>
+        <v>657516</v>
       </c>
       <c r="R2" t="n">
-        <v>7105271</v>
+        <v>7105133</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -745,12 +749,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -765,22 +769,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56071692</v>
+        <v>73355363</v>
       </c>
       <c r="B3" t="n">
-        <v>91263</v>
+        <v>91541</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,38 +792,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>657516</v>
+        <v>657960</v>
       </c>
       <c r="R3" t="n">
-        <v>7105133</v>
+        <v>7105271</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -846,12 +846,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -866,22 +866,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>113887834</v>
+        <v>113887623</v>
       </c>
       <c r="B4" t="n">
-        <v>78980</v>
+        <v>92551</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,21 +889,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>657518</v>
+        <v>657735</v>
       </c>
       <c r="R4" t="n">
-        <v>7105661</v>
+        <v>7104176</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -947,12 +947,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -984,10 +984,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>113887623</v>
+        <v>113887834</v>
       </c>
       <c r="B5" t="n">
-        <v>92551</v>
+        <v>78980</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,21 +995,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>657735</v>
+        <v>657518</v>
       </c>
       <c r="R5" t="n">
-        <v>7104176</v>
+        <v>7105661</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1196,10 +1196,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73355458</v>
+        <v>56071695</v>
       </c>
       <c r="B7" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1207,34 +1207,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>657403</v>
+        <v>657474</v>
       </c>
       <c r="R7" t="n">
-        <v>7105466</v>
+        <v>7105113</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1261,12 +1265,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1281,12 +1285,12 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
@@ -1398,10 +1402,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56071695</v>
+        <v>73355458</v>
       </c>
       <c r="B9" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,38 +1413,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>657474</v>
+        <v>657403</v>
       </c>
       <c r="R9" t="n">
-        <v>7105113</v>
+        <v>7105466</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1487,22 +1487,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>113886626</v>
+        <v>113886582</v>
       </c>
       <c r="B10" t="n">
-        <v>82792</v>
+        <v>91263</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1510,21 +1510,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>657766</v>
+        <v>657454</v>
       </c>
       <c r="R10" t="n">
-        <v>7104156</v>
+        <v>7105526</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1605,10 +1605,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>113886582</v>
+        <v>113886676</v>
       </c>
       <c r="B11" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1616,21 +1616,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>657454</v>
+        <v>657977</v>
       </c>
       <c r="R11" t="n">
-        <v>7105526</v>
+        <v>7104368</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -1711,10 +1711,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>113886676</v>
+        <v>113886626</v>
       </c>
       <c r="B12" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1722,21 +1722,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>657977</v>
+        <v>657766</v>
       </c>
       <c r="R12" t="n">
-        <v>7104368</v>
+        <v>7104156</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73355478</v>
+        <v>56071705</v>
       </c>
       <c r="B14" t="n">
-        <v>79012</v>
+        <v>78647</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1929,34 +1929,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>657547</v>
+        <v>656971</v>
       </c>
       <c r="R14" t="n">
-        <v>7105326</v>
+        <v>7103948</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1983,12 +1987,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2003,12 +2007,12 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
@@ -2116,10 +2120,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>56071705</v>
+        <v>73355478</v>
       </c>
       <c r="B16" t="n">
-        <v>78647</v>
+        <v>79012</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2127,38 +2131,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>353</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>656971</v>
+        <v>657547</v>
       </c>
       <c r="R16" t="n">
-        <v>7103948</v>
+        <v>7105326</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2205,12 +2205,12 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2429,49 +2429,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>56071689</v>
+        <v>73355449</v>
       </c>
       <c r="B19" t="n">
-        <v>78980</v>
+        <v>90741</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>2051</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Kytöv. &amp; M.Toivonen</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>657544</v>
+        <v>658087</v>
       </c>
       <c r="R19" t="n">
-        <v>7105399</v>
+        <v>7104464</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2498,12 +2494,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2518,61 +2514,57 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56071672</v>
+        <v>73355358</v>
       </c>
       <c r="B20" t="n">
-        <v>91406</v>
+        <v>80083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1503</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>657917</v>
+        <v>657651</v>
       </c>
       <c r="R20" t="n">
-        <v>7104287</v>
+        <v>7105303</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2599,12 +2591,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2619,22 +2611,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>73355449</v>
+        <v>56071672</v>
       </c>
       <c r="B21" t="n">
-        <v>90741</v>
+        <v>91406</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2642,34 +2634,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2051</v>
+        <v>1503</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>658087</v>
+        <v>657917</v>
       </c>
       <c r="R21" t="n">
-        <v>7104464</v>
+        <v>7104287</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2696,12 +2692,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2716,22 +2712,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73355358</v>
+        <v>56071671</v>
       </c>
       <c r="B22" t="n">
-        <v>80083</v>
+        <v>78739</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2739,34 +2735,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>657651</v>
+        <v>657894</v>
       </c>
       <c r="R22" t="n">
-        <v>7105303</v>
+        <v>7104275</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2793,12 +2793,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2813,22 +2813,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56071671</v>
+        <v>56071689</v>
       </c>
       <c r="B23" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2836,21 +2836,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2864,10 +2864,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>657894</v>
+        <v>657544</v>
       </c>
       <c r="R23" t="n">
-        <v>7104275</v>
+        <v>7105399</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3138,45 +3138,49 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>73355467</v>
+        <v>56071698</v>
       </c>
       <c r="B26" t="n">
-        <v>79987</v>
+        <v>91263</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>657326</v>
+        <v>657556</v>
       </c>
       <c r="R26" t="n">
-        <v>7105713</v>
+        <v>7104954</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3203,12 +3207,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3223,22 +3227,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>73355374</v>
+        <v>56071693</v>
       </c>
       <c r="B27" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3246,34 +3250,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>658703</v>
+        <v>657495</v>
       </c>
       <c r="R27" t="n">
-        <v>7104704</v>
+        <v>7105113</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3300,12 +3308,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3320,22 +3328,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>73355450</v>
+        <v>73355452</v>
       </c>
       <c r="B28" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3343,21 +3351,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3367,10 +3375,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>657979</v>
+        <v>657822</v>
       </c>
       <c r="R28" t="n">
-        <v>7104364</v>
+        <v>7104201</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3429,10 +3437,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>73355452</v>
+        <v>73355450</v>
       </c>
       <c r="B29" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3440,21 +3448,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3464,10 +3472,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>657822</v>
+        <v>657979</v>
       </c>
       <c r="R29" t="n">
-        <v>7104201</v>
+        <v>7104364</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3526,10 +3534,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56071693</v>
+        <v>73355374</v>
       </c>
       <c r="B30" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3537,38 +3545,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>657495</v>
+        <v>658703</v>
       </c>
       <c r="R30" t="n">
-        <v>7105113</v>
+        <v>7104704</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3595,12 +3599,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3615,61 +3619,57 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56071698</v>
+        <v>73355467</v>
       </c>
       <c r="B31" t="n">
-        <v>91263</v>
+        <v>79987</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6456</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>657556</v>
+        <v>657326</v>
       </c>
       <c r="R31" t="n">
-        <v>7104954</v>
+        <v>7105713</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3696,12 +3696,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3716,12 +3716,12 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -3829,32 +3829,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>73355457</v>
+        <v>73355475</v>
       </c>
       <c r="B33" t="n">
-        <v>91406</v>
+        <v>80083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1503</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>657453</v>
+        <v>657558</v>
       </c>
       <c r="R33" t="n">
-        <v>7105204</v>
+        <v>7105346</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3910,11 +3910,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AS33" t="inlineStr">
-        <is>
-          <t>Gudrun Norstedt</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -3931,32 +3926,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>73355475</v>
+        <v>73355457</v>
       </c>
       <c r="B34" t="n">
-        <v>80083</v>
+        <v>91406</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>1503</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3966,10 +3961,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>657558</v>
+        <v>657453</v>
       </c>
       <c r="R34" t="n">
-        <v>7105346</v>
+        <v>7105204</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4012,6 +4007,11 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>Gudrun Norstedt</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4028,49 +4028,45 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>56071676</v>
+        <v>73355369</v>
       </c>
       <c r="B35" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>658040</v>
+        <v>658552</v>
       </c>
       <c r="R35" t="n">
-        <v>7104486</v>
+        <v>7104702</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4097,12 +4093,17 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Växer på grov rönn</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4117,60 +4118,60 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>69885252</v>
+        <v>73355453</v>
       </c>
       <c r="B36" t="n">
-        <v>80083</v>
+        <v>79987</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>658722</v>
+        <v>657822</v>
       </c>
       <c r="R36" t="n">
-        <v>7104652</v>
+        <v>7104201</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4194,17 +4195,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4219,19 +4215,19 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>69885250</v>
+        <v>69885252</v>
       </c>
       <c r="B37" t="n">
         <v>80083</v>
@@ -4266,10 +4262,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>657452</v>
+        <v>658722</v>
       </c>
       <c r="R37" t="n">
-        <v>7105474</v>
+        <v>7104652</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4333,10 +4329,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>73355471</v>
+        <v>69885250</v>
       </c>
       <c r="B38" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4344,37 +4340,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>657411</v>
+        <v>657452</v>
       </c>
       <c r="R38" t="n">
-        <v>7105711</v>
+        <v>7105474</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4398,12 +4394,17 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2017-10-15</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2017-10-15</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4418,19 +4419,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>73355369</v>
+        <v>73355354</v>
       </c>
       <c r="B39" t="n">
         <v>80083</v>
@@ -4465,10 +4466,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>658552</v>
+        <v>657549</v>
       </c>
       <c r="R39" t="n">
-        <v>7104702</v>
+        <v>7105271</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4501,11 +4502,6 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2017-09-19</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Växer på grov rönn</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4532,10 +4528,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>73355354</v>
+        <v>73355471</v>
       </c>
       <c r="B40" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4543,21 +4539,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4567,10 +4563,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>657549</v>
+        <v>657411</v>
       </c>
       <c r="R40" t="n">
-        <v>7105271</v>
+        <v>7105711</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4629,10 +4625,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>73355453</v>
+        <v>56071676</v>
       </c>
       <c r="B41" t="n">
-        <v>79987</v>
+        <v>80119</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4640,34 +4636,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6456</v>
+        <v>6464</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>657822</v>
+        <v>658040</v>
       </c>
       <c r="R41" t="n">
-        <v>7104201</v>
+        <v>7104486</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4694,12 +4694,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4714,22 +4714,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>113886581</v>
+        <v>113887053</v>
       </c>
       <c r="B42" t="n">
-        <v>91263</v>
+        <v>79569</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4737,21 +4737,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>229821</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4765,10 +4765,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>657576</v>
+        <v>657773</v>
       </c>
       <c r="R42" t="n">
-        <v>7105451</v>
+        <v>7104081</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -4795,12 +4795,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -4832,10 +4832,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>113887053</v>
+        <v>113886581</v>
       </c>
       <c r="B43" t="n">
-        <v>79569</v>
+        <v>91263</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4843,21 +4843,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>229821</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>657773</v>
+        <v>657576</v>
       </c>
       <c r="R43" t="n">
-        <v>7104081</v>
+        <v>7105451</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -4901,12 +4901,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -4938,32 +4938,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>113887874</v>
+        <v>56071694</v>
       </c>
       <c r="B44" t="n">
-        <v>78980</v>
+        <v>80119</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4973,17 +4973,17 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>657933</v>
+        <v>657474</v>
       </c>
       <c r="R44" t="n">
-        <v>7104433</v>
+        <v>7105113</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5007,17 +5007,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5032,12 +5027,12 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5150,32 +5145,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>113887646</v>
+        <v>113886675</v>
       </c>
       <c r="B46" t="n">
-        <v>92535</v>
+        <v>80083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5189,10 +5184,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>657791</v>
+        <v>657973</v>
       </c>
       <c r="R46" t="n">
-        <v>7104086</v>
+        <v>7104291</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5256,10 +5251,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>113886846</v>
+        <v>113887874</v>
       </c>
       <c r="B47" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5267,21 +5262,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -5295,10 +5290,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>657338</v>
+        <v>657933</v>
       </c>
       <c r="R47" t="n">
-        <v>7105679</v>
+        <v>7104433</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5325,12 +5320,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -5362,32 +5357,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>113886675</v>
+        <v>113887646</v>
       </c>
       <c r="B48" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5401,10 +5396,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>657973</v>
+        <v>657791</v>
       </c>
       <c r="R48" t="n">
-        <v>7104291</v>
+        <v>7104086</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5468,32 +5463,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>56071694</v>
+        <v>113886846</v>
       </c>
       <c r="B49" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5503,17 +5498,17 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>657474</v>
+        <v>657338</v>
       </c>
       <c r="R49" t="n">
-        <v>7105113</v>
+        <v>7105679</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5537,12 +5532,17 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5557,12 +5557,12 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>73355377</v>
+        <v>56071697</v>
       </c>
       <c r="B51" t="n">
-        <v>80084</v>
+        <v>80083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5677,34 +5677,38 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>658710</v>
+        <v>657483</v>
       </c>
       <c r="R51" t="n">
-        <v>7104666</v>
+        <v>7105053</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5731,12 +5735,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5751,44 +5755,44 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>113887725</v>
+        <v>56071688</v>
       </c>
       <c r="B52" t="n">
-        <v>92535</v>
+        <v>75075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4364</v>
+        <v>6440</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5798,17 +5802,17 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>657950</v>
+        <v>657540</v>
       </c>
       <c r="R52" t="n">
-        <v>7104274</v>
+        <v>7105405</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5832,17 +5836,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5857,44 +5856,44 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>113887647</v>
+        <v>56071691</v>
       </c>
       <c r="B53" t="n">
-        <v>92535</v>
+        <v>91245</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5904,17 +5903,17 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>657913</v>
+        <v>657528</v>
       </c>
       <c r="R53" t="n">
-        <v>7104356</v>
+        <v>7105236</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5938,17 +5937,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5963,44 +5957,44 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>113886494</v>
+        <v>56071699</v>
       </c>
       <c r="B54" t="n">
-        <v>91256</v>
+        <v>79012</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1205</v>
+        <v>185</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -6010,17 +6004,17 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>657479</v>
+        <v>657627</v>
       </c>
       <c r="R54" t="n">
-        <v>7105709</v>
+        <v>7104746</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6044,17 +6038,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6069,22 +6058,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56071699</v>
+        <v>56071703</v>
       </c>
       <c r="B55" t="n">
-        <v>79012</v>
+        <v>78738</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6092,21 +6081,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>6446</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -6120,10 +6109,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>657627</v>
+        <v>656984</v>
       </c>
       <c r="R55" t="n">
-        <v>7104746</v>
+        <v>7103934</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6182,49 +6171,45 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56071697</v>
+        <v>73355466</v>
       </c>
       <c r="B56" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>657483</v>
+        <v>657326</v>
       </c>
       <c r="R56" t="n">
-        <v>7105053</v>
+        <v>7105713</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6251,12 +6236,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6271,22 +6256,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56071703</v>
+        <v>73355377</v>
       </c>
       <c r="B57" t="n">
-        <v>78738</v>
+        <v>80084</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6294,38 +6279,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6446</v>
+        <v>2081</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>656984</v>
+        <v>658710</v>
       </c>
       <c r="R57" t="n">
-        <v>7103934</v>
+        <v>7104666</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6352,12 +6333,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6372,44 +6353,44 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56071688</v>
+        <v>113887647</v>
       </c>
       <c r="B58" t="n">
-        <v>75075</v>
+        <v>92535</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>4364</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6419,17 +6400,17 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>657540</v>
+        <v>657913</v>
       </c>
       <c r="R58" t="n">
-        <v>7105405</v>
+        <v>7104356</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6453,12 +6434,17 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6473,44 +6459,44 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56071691</v>
+        <v>113887725</v>
       </c>
       <c r="B59" t="n">
-        <v>91245</v>
+        <v>92535</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -6520,17 +6506,17 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>657528</v>
+        <v>657950</v>
       </c>
       <c r="R59" t="n">
-        <v>7105236</v>
+        <v>7104274</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -6554,12 +6540,17 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6574,22 +6565,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>73355466</v>
+        <v>113886494</v>
       </c>
       <c r="B60" t="n">
-        <v>80112</v>
+        <v>91256</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6597,37 +6588,41 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6462</v>
+        <v>1205</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>657326</v>
+        <v>657479</v>
       </c>
       <c r="R60" t="n">
-        <v>7105713</v>
+        <v>7105709</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -6651,12 +6646,17 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6671,12 +6671,12 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
@@ -6982,10 +6982,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>113887875</v>
+        <v>113886794</v>
       </c>
       <c r="B64" t="n">
-        <v>78980</v>
+        <v>78739</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6993,21 +6993,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -7021,10 +7021,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>657763</v>
+        <v>657815</v>
       </c>
       <c r="R64" t="n">
-        <v>7104085</v>
+        <v>7104202</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -7194,10 +7194,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>113886794</v>
+        <v>113887875</v>
       </c>
       <c r="B66" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7205,21 +7205,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -7233,10 +7233,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>657815</v>
+        <v>657763</v>
       </c>
       <c r="R66" t="n">
-        <v>7104202</v>
+        <v>7104085</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -8398,32 +8398,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>113888093</v>
+        <v>113886782</v>
       </c>
       <c r="B78" t="n">
-        <v>78738</v>
+        <v>79987</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6446</v>
+        <v>6456</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -8437,10 +8437,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>657773</v>
+        <v>657977</v>
       </c>
       <c r="R78" t="n">
-        <v>7104082</v>
+        <v>7104292</v>
       </c>
       <c r="S78" t="n">
         <v>5</v>
@@ -8504,32 +8504,32 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>113886782</v>
+        <v>113888093</v>
       </c>
       <c r="B79" t="n">
-        <v>79987</v>
+        <v>78738</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -8543,10 +8543,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>657977</v>
+        <v>657773</v>
       </c>
       <c r="R79" t="n">
-        <v>7104292</v>
+        <v>7104082</v>
       </c>
       <c r="S79" t="n">
         <v>5</v>
@@ -8906,32 +8906,32 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>113887696</v>
+        <v>113886442</v>
       </c>
       <c r="B83" t="n">
-        <v>92547</v>
+        <v>91245</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8945,10 +8945,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>657931</v>
+        <v>657954</v>
       </c>
       <c r="R83" t="n">
-        <v>7104413</v>
+        <v>7104353</v>
       </c>
       <c r="S83" t="n">
         <v>5</v>
@@ -9012,32 +9012,32 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>113886442</v>
+        <v>113887727</v>
       </c>
       <c r="B84" t="n">
-        <v>91245</v>
+        <v>92535</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -9051,10 +9051,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>657954</v>
+        <v>657731</v>
       </c>
       <c r="R84" t="n">
-        <v>7104353</v>
+        <v>7104156</v>
       </c>
       <c r="S84" t="n">
         <v>5</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>113887727</v>
+        <v>113887696</v>
       </c>
       <c r="B85" t="n">
-        <v>92535</v>
+        <v>92547</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9129,21 +9129,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -9157,10 +9157,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>657731</v>
+        <v>657931</v>
       </c>
       <c r="R85" t="n">
-        <v>7104156</v>
+        <v>7104413</v>
       </c>
       <c r="S85" t="n">
         <v>5</v>
@@ -9224,32 +9224,32 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>113886787</v>
+        <v>113886848</v>
       </c>
       <c r="B86" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -9263,10 +9263,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>657815</v>
+        <v>657392</v>
       </c>
       <c r="R86" t="n">
-        <v>7104197</v>
+        <v>7105697</v>
       </c>
       <c r="S86" t="n">
         <v>5</v>
@@ -9293,12 +9293,12 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -9330,32 +9330,32 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>113886848</v>
+        <v>113886787</v>
       </c>
       <c r="B87" t="n">
-        <v>80083</v>
+        <v>79987</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -9369,10 +9369,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>657392</v>
+        <v>657815</v>
       </c>
       <c r="R87" t="n">
-        <v>7105697</v>
+        <v>7104197</v>
       </c>
       <c r="S87" t="n">
         <v>5</v>
@@ -9399,12 +9399,12 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
@@ -9537,52 +9537,48 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>113887728</v>
+        <v>73355459</v>
       </c>
       <c r="B89" t="n">
-        <v>92535</v>
+        <v>91245</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>657730</v>
+        <v>657403</v>
       </c>
       <c r="R89" t="n">
-        <v>7104175</v>
+        <v>7105466</v>
       </c>
       <c r="S89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -9606,17 +9602,12 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -9631,64 +9622,60 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>113886779</v>
+        <v>73355357</v>
       </c>
       <c r="B90" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>658021</v>
+        <v>657614</v>
       </c>
       <c r="R90" t="n">
-        <v>7104364</v>
+        <v>7105296</v>
       </c>
       <c r="S90" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -9712,17 +9699,12 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -9737,22 +9719,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>113887459</v>
+        <v>73355353</v>
       </c>
       <c r="B91" t="n">
-        <v>92571</v>
+        <v>80083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9760,41 +9742,37 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5966</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>657758</v>
+        <v>657548</v>
       </c>
       <c r="R91" t="n">
-        <v>7104206</v>
+        <v>7105270</v>
       </c>
       <c r="S91" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -9818,17 +9796,12 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -9843,22 +9816,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>73355365</v>
+        <v>73355456</v>
       </c>
       <c r="B92" t="n">
-        <v>79012</v>
+        <v>80083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9866,21 +9839,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -9890,10 +9863,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>658022</v>
+        <v>657448</v>
       </c>
       <c r="R92" t="n">
-        <v>7105112</v>
+        <v>7105038</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -9952,10 +9925,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>73355477</v>
+        <v>73355365</v>
       </c>
       <c r="B93" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9963,21 +9936,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -9987,10 +9960,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>657547</v>
+        <v>658022</v>
       </c>
       <c r="R93" t="n">
-        <v>7105326</v>
+        <v>7105112</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10049,10 +10022,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>73355459</v>
+        <v>73355477</v>
       </c>
       <c r="B94" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10060,21 +10033,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10084,10 +10057,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>657403</v>
+        <v>657547</v>
       </c>
       <c r="R94" t="n">
-        <v>7105466</v>
+        <v>7105326</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10243,48 +10216,52 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>73355353</v>
+        <v>113886779</v>
       </c>
       <c r="B96" t="n">
-        <v>80083</v>
+        <v>79987</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>657548</v>
+        <v>658021</v>
       </c>
       <c r="R96" t="n">
-        <v>7105270</v>
+        <v>7104364</v>
       </c>
       <c r="S96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -10308,12 +10285,17 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10328,22 +10310,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>73355357</v>
+        <v>113887459</v>
       </c>
       <c r="B97" t="n">
-        <v>80083</v>
+        <v>92571</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10351,37 +10333,41 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>5966</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>657614</v>
+        <v>657758</v>
       </c>
       <c r="R97" t="n">
-        <v>7105296</v>
+        <v>7104206</v>
       </c>
       <c r="S97" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -10405,12 +10391,17 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -10425,60 +10416,64 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>73355456</v>
+        <v>113887728</v>
       </c>
       <c r="B98" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>657448</v>
+        <v>657730</v>
       </c>
       <c r="R98" t="n">
-        <v>7105038</v>
+        <v>7104175</v>
       </c>
       <c r="S98" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -10502,12 +10497,17 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -10522,22 +10522,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>56071675</v>
+        <v>56071687</v>
       </c>
       <c r="B99" t="n">
-        <v>78980</v>
+        <v>78386</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10545,21 +10545,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -10573,10 +10573,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>658031</v>
+        <v>657718</v>
       </c>
       <c r="R99" t="n">
-        <v>7104486</v>
+        <v>7105200</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -10635,10 +10635,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>56071687</v>
+        <v>56071675</v>
       </c>
       <c r="B100" t="n">
-        <v>78386</v>
+        <v>78980</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10646,21 +10646,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -10674,10 +10674,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>657718</v>
+        <v>658031</v>
       </c>
       <c r="R100" t="n">
-        <v>7105200</v>
+        <v>7104486</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -10833,10 +10833,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>73355359</v>
+        <v>73355368</v>
       </c>
       <c r="B102" t="n">
-        <v>88654</v>
+        <v>57670</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10844,34 +10844,39 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>510</v>
+        <v>100048</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>657656</v>
+        <v>658162</v>
       </c>
       <c r="R102" t="n">
-        <v>7105307</v>
+        <v>7105062</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -10930,10 +10935,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>73355368</v>
+        <v>73355359</v>
       </c>
       <c r="B103" t="n">
-        <v>57670</v>
+        <v>88654</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10941,39 +10946,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100048</v>
+        <v>510</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
       <c r="P103" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>658162</v>
+        <v>657656</v>
       </c>
       <c r="R103" t="n">
-        <v>7105062</v>
+        <v>7105307</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11543,10 +11543,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>113886632</v>
+        <v>73355468</v>
       </c>
       <c r="B109" t="n">
-        <v>82792</v>
+        <v>80083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11554,41 +11554,37 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>657796</v>
+        <v>657326</v>
       </c>
       <c r="R109" t="n">
-        <v>7104281</v>
+        <v>7105713</v>
       </c>
       <c r="S109" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -11612,17 +11608,12 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="AC109" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -11637,12 +11628,12 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
@@ -11746,10 +11737,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>73355468</v>
+        <v>113886632</v>
       </c>
       <c r="B111" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11757,37 +11748,41 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr"/>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>657326</v>
+        <v>657796</v>
       </c>
       <c r="R111" t="n">
-        <v>7105713</v>
+        <v>7104281</v>
       </c>
       <c r="S111" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -11811,12 +11806,17 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="AC111" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -11831,66 +11831,57 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>73355372</v>
+        <v>73355360</v>
       </c>
       <c r="B112" t="n">
-        <v>5176</v>
+        <v>80084</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100526</v>
+        <v>2081</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>658660</v>
+        <v>657726</v>
       </c>
       <c r="R112" t="n">
-        <v>7104771</v>
+        <v>7105255</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -11925,13 +11916,17 @@
           <t>2017-09-19</t>
         </is>
       </c>
+      <c r="AC112" t="inlineStr">
+        <is>
+          <t>Växer på asp</t>
+        </is>
+      </c>
       <c r="AD112" t="b">
         <v>0</v>
       </c>
       <c r="AE112" t="b">
         <v>0</v>
       </c>
-      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
@@ -11950,45 +11945,54 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>73355360</v>
+        <v>73355372</v>
       </c>
       <c r="B113" t="n">
-        <v>80084</v>
+        <v>5176</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2081</v>
+        <v>100526</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>657726</v>
+        <v>658660</v>
       </c>
       <c r="R113" t="n">
-        <v>7105255</v>
+        <v>7104771</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -12023,17 +12027,13 @@
           <t>2017-09-19</t>
         </is>
       </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>Växer på asp</t>
-        </is>
-      </c>
       <c r="AD113" t="b">
         <v>0</v>
       </c>
       <c r="AE113" t="b">
         <v>0</v>
       </c>
+      <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="b">
         <v>0</v>
       </c>
@@ -12264,10 +12264,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>56071690</v>
+        <v>56071704</v>
       </c>
       <c r="B116" t="n">
-        <v>91245</v>
+        <v>78739</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12275,21 +12275,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1202</v>
+        <v>228912</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>657498</v>
+        <v>656984</v>
       </c>
       <c r="R116" t="n">
-        <v>7105383</v>
+        <v>7103934</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -12365,32 +12365,32 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>56071674</v>
+        <v>56071690</v>
       </c>
       <c r="B117" t="n">
-        <v>80112</v>
+        <v>91245</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -12404,10 +12404,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>658021</v>
+        <v>657498</v>
       </c>
       <c r="R117" t="n">
-        <v>7104498</v>
+        <v>7105383</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -12466,32 +12466,32 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>56071704</v>
+        <v>56071674</v>
       </c>
       <c r="B118" t="n">
-        <v>78739</v>
+        <v>80112</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>228912</v>
+        <v>6462</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -12505,10 +12505,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>656984</v>
+        <v>658021</v>
       </c>
       <c r="R118" t="n">
-        <v>7103934</v>
+        <v>7104498</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -12567,32 +12567,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>73355454</v>
+        <v>73355376</v>
       </c>
       <c r="B119" t="n">
-        <v>92535</v>
+        <v>80083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -12602,10 +12602,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>657510</v>
+        <v>658729</v>
       </c>
       <c r="R119" t="n">
-        <v>7104601</v>
+        <v>7104669</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -12664,32 +12664,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>73355356</v>
+        <v>73355454</v>
       </c>
       <c r="B120" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -12699,10 +12699,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>657550</v>
+        <v>657510</v>
       </c>
       <c r="R120" t="n">
-        <v>7105270</v>
+        <v>7104601</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>73355376</v>
+        <v>73355356</v>
       </c>
       <c r="B121" t="n">
         <v>80083</v>
@@ -12796,10 +12796,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>658729</v>
+        <v>657550</v>
       </c>
       <c r="R121" t="n">
-        <v>7104669</v>
+        <v>7105270</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -13167,10 +13167,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>56071702</v>
+        <v>73355473</v>
       </c>
       <c r="B125" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -13178,38 +13178,34 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>657019</v>
+        <v>657459</v>
       </c>
       <c r="R125" t="n">
-        <v>7103871</v>
+        <v>7105707</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -13236,12 +13232,12 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -13256,22 +13252,22 @@
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>56071682</v>
+        <v>73355465</v>
       </c>
       <c r="B126" t="n">
-        <v>80112</v>
+        <v>80118</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13279,38 +13275,34 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
           <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>658292</v>
+        <v>657326</v>
       </c>
       <c r="R126" t="n">
-        <v>7104702</v>
+        <v>7105713</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -13337,12 +13329,12 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2015-10-28</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -13357,22 +13349,22 @@
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>113886845</v>
+        <v>56071702</v>
       </c>
       <c r="B127" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13380,21 +13372,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -13404,17 +13396,17 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>657368</v>
+        <v>657019</v>
       </c>
       <c r="R127" t="n">
-        <v>7105662</v>
+        <v>7103871</v>
       </c>
       <c r="S127" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
@@ -13438,17 +13430,12 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="AC127" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -13463,44 +13450,44 @@
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>113886470</v>
+        <v>56071682</v>
       </c>
       <c r="B128" t="n">
-        <v>91245</v>
+        <v>80112</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -13510,17 +13497,17 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Oxliden, Ås lm</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>657558</v>
+        <v>658292</v>
       </c>
       <c r="R128" t="n">
-        <v>7105584</v>
+        <v>7104702</v>
       </c>
       <c r="S128" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -13544,17 +13531,12 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="AC128" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2015-10-28</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -13569,22 +13551,22 @@
       <c r="AT128" t="inlineStr"/>
       <c r="AW128" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>113886525</v>
+        <v>113886470</v>
       </c>
       <c r="B129" t="n">
-        <v>91259</v>
+        <v>91245</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13592,21 +13574,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -13620,10 +13602,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>657586</v>
+        <v>657558</v>
       </c>
       <c r="R129" t="n">
-        <v>7105611</v>
+        <v>7105584</v>
       </c>
       <c r="S129" t="n">
         <v>5</v>
@@ -13687,10 +13669,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>73355473</v>
+        <v>113886525</v>
       </c>
       <c r="B130" t="n">
-        <v>80083</v>
+        <v>91259</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13698,37 +13680,41 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr"/>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>657459</v>
+        <v>657586</v>
       </c>
       <c r="R130" t="n">
-        <v>7105707</v>
+        <v>7105611</v>
       </c>
       <c r="S130" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -13752,12 +13738,17 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC130" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -13772,60 +13763,64 @@
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>73355465</v>
+        <v>113886845</v>
       </c>
       <c r="B131" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Oxliden, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>657326</v>
+        <v>657368</v>
       </c>
       <c r="R131" t="n">
-        <v>7105713</v>
+        <v>7105662</v>
       </c>
       <c r="S131" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -13849,12 +13844,17 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC131" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -13869,44 +13869,44 @@
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>56071673</v>
+        <v>56071685</v>
       </c>
       <c r="B132" t="n">
-        <v>79987</v>
+        <v>78980</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -13920,10 +13920,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>658027</v>
+        <v>658439</v>
       </c>
       <c r="R132" t="n">
-        <v>7104494</v>
+        <v>7104859</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -13982,32 +13982,32 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>56071685</v>
+        <v>56071673</v>
       </c>
       <c r="B133" t="n">
-        <v>78980</v>
+        <v>79987</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -14021,10 +14021,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>658439</v>
+        <v>658027</v>
       </c>
       <c r="R133" t="n">
-        <v>7104859</v>
+        <v>7104494</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
